--- a/write-ups/thesis/excel/performance.xlsx
+++ b/write-ups/thesis/excel/performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15680" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16020" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Change with Epochlength" sheetId="1" r:id="rId1"/>
@@ -1465,11 +1465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125022040"/>
-        <c:axId val="2125026904"/>
+        <c:axId val="2130336824"/>
+        <c:axId val="2120180168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125022040"/>
+        <c:axId val="2130336824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1479,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125026904"/>
+        <c:crossAx val="2120180168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125026904"/>
+        <c:axId val="2120180168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1498,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125022040"/>
+        <c:crossAx val="2130336824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,11 +1605,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="2120420136"/>
-        <c:axId val="2120423112"/>
+        <c:axId val="2114358808"/>
+        <c:axId val="2114784152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120420136"/>
+        <c:axId val="2114358808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1618,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120423112"/>
+        <c:crossAx val="2114784152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120423112"/>
+        <c:axId val="2114784152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1636,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120420136"/>
+        <c:crossAx val="2114358808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,11 +1724,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="2122114360"/>
-        <c:axId val="2122102024"/>
+        <c:axId val="2130647976"/>
+        <c:axId val="2130635704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122114360"/>
+        <c:axId val="2130647976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122102024"/>
+        <c:crossAx val="2130635704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122102024"/>
+        <c:axId val="2130635704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122114360"/>
+        <c:crossAx val="2130647976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1997,11 +1997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120282616"/>
-        <c:axId val="2120285592"/>
+        <c:axId val="2130525688"/>
+        <c:axId val="2130522216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120282616"/>
+        <c:axId val="2130525688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120285592"/>
+        <c:crossAx val="2130522216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2019,7 +2019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120285592"/>
+        <c:axId val="2130522216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120282616"/>
+        <c:crossAx val="2130525688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2146,11 +2146,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="2073684984"/>
-        <c:axId val="2073688632"/>
+        <c:axId val="2130478616"/>
+        <c:axId val="2130473272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073684984"/>
+        <c:axId val="2130478616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073688632"/>
+        <c:crossAx val="2130473272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2168,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073688632"/>
+        <c:axId val="2130473272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073684984"/>
+        <c:crossAx val="2130478616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2414,11 +2414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125098424"/>
-        <c:axId val="2125117000"/>
+        <c:axId val="2119605352"/>
+        <c:axId val="2137573576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125098424"/>
+        <c:axId val="2119605352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125117000"/>
+        <c:crossAx val="2137573576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125117000"/>
+        <c:axId val="2137573576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,14 +2446,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125098424"/>
+        <c:crossAx val="2119605352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2483,7 +2482,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2730,11 +2728,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120316792"/>
-        <c:axId val="2120315544"/>
+        <c:axId val="2130436840"/>
+        <c:axId val="2130422280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120316792"/>
+        <c:axId val="2130436840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2741,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120315544"/>
+        <c:crossAx val="2130422280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2751,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120315544"/>
+        <c:axId val="2130422280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,14 +2757,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120316792"/>
+        <c:crossAx val="2130436840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2819,7 +2816,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2904,11 +2900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120364328"/>
-        <c:axId val="2120367272"/>
+        <c:axId val="2130323704"/>
+        <c:axId val="2130317336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120364328"/>
+        <c:axId val="2130323704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120367272"/>
+        <c:crossAx val="2130317336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2925,7 +2921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120367272"/>
+        <c:axId val="2130317336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,14 +2932,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120364328"/>
+        <c:crossAx val="2130323704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3034,11 +3029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073720040"/>
-        <c:axId val="2073723032"/>
+        <c:axId val="2130271000"/>
+        <c:axId val="2130273944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073720040"/>
+        <c:axId val="2130271000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073723032"/>
+        <c:crossAx val="2130273944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073723032"/>
+        <c:axId val="2130273944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,7 +3061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073720040"/>
+        <c:crossAx val="2130271000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3154,11 +3149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118960728"/>
-        <c:axId val="2118963672"/>
+        <c:axId val="2119179128"/>
+        <c:axId val="2119611432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118960728"/>
+        <c:axId val="2119179128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118963672"/>
+        <c:crossAx val="2119611432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118963672"/>
+        <c:axId val="2119611432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118960728"/>
+        <c:crossAx val="2119179128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3274,11 +3269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118990328"/>
-        <c:axId val="2118993272"/>
+        <c:axId val="2130265928"/>
+        <c:axId val="2130268920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118990328"/>
+        <c:axId val="2130265928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,7 +3282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118993272"/>
+        <c:crossAx val="2130268920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3295,7 +3290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118993272"/>
+        <c:axId val="2130268920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,7 +3301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118990328"/>
+        <c:crossAx val="2130265928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3424,11 +3419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125046584"/>
-        <c:axId val="2125049640"/>
+        <c:axId val="2130661432"/>
+        <c:axId val="2130045016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125046584"/>
+        <c:axId val="2130661432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125049640"/>
+        <c:crossAx val="2130045016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3445,7 +3440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125049640"/>
+        <c:axId val="2130045016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,14 +3463,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125046584"/>
+        <c:crossAx val="2130661432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,11 +3597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119023928"/>
-        <c:axId val="2119026904"/>
+        <c:axId val="2130148488"/>
+        <c:axId val="2130151464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119023928"/>
+        <c:axId val="2130148488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119026904"/>
+        <c:crossAx val="2130151464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3624,7 +3618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119026904"/>
+        <c:axId val="2130151464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +3629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119023928"/>
+        <c:crossAx val="2130148488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3748,11 +3742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119055224"/>
-        <c:axId val="2119058200"/>
+        <c:axId val="2130178904"/>
+        <c:axId val="2130181880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119055224"/>
+        <c:axId val="2130178904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,7 +3755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119058200"/>
+        <c:crossAx val="2130181880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3769,7 +3763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119058200"/>
+        <c:axId val="2130181880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,7 +3774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119055224"/>
+        <c:crossAx val="2130178904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3917,11 +3911,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121922920"/>
-        <c:axId val="2121928280"/>
+        <c:axId val="2114074520"/>
+        <c:axId val="2114069544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121922920"/>
+        <c:axId val="2114074520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121928280"/>
+        <c:crossAx val="2114069544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3957,7 +3951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121928280"/>
+        <c:axId val="2114069544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +3962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121922920"/>
+        <c:crossAx val="2114074520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4065,11 +4059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121966440"/>
-        <c:axId val="2121969448"/>
+        <c:axId val="2107797624"/>
+        <c:axId val="2134704808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121966440"/>
+        <c:axId val="2107797624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121969448"/>
+        <c:crossAx val="2134704808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4086,7 +4080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121969448"/>
+        <c:axId val="2134704808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4097,7 +4091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121966440"/>
+        <c:crossAx val="2107797624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4211,6 +4205,35 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>MTV!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2390.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2390.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2390.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2390.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2390.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -4221,11 +4244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125408616"/>
-        <c:axId val="2125412040"/>
+        <c:axId val="2130205304"/>
+        <c:axId val="2130215864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125408616"/>
+        <c:axId val="2130205304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,7 +4282,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125412040"/>
+        <c:crossAx val="2130215864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4267,7 +4290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125412040"/>
+        <c:axId val="2130215864"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4298,7 +4321,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125408616"/>
+        <c:crossAx val="2130205304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4661,11 +4684,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112451384"/>
-        <c:axId val="2112444440"/>
+        <c:axId val="2136819352"/>
+        <c:axId val="2136818232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112451384"/>
+        <c:axId val="2136819352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,14 +4710,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112444440"/>
+        <c:crossAx val="2136818232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4702,7 +4724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112444440"/>
+        <c:axId val="2136818232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112451384"/>
+        <c:crossAx val="2136819352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4840,11 +4862,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2112471704"/>
-        <c:axId val="2112489144"/>
+        <c:axId val="2114071944"/>
+        <c:axId val="2114006488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112471704"/>
+        <c:axId val="2114071944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4853,7 +4875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112489144"/>
+        <c:crossAx val="2114006488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4861,7 +4883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112489144"/>
+        <c:axId val="2114006488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4884,14 +4906,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112471704"/>
+        <c:crossAx val="2114071944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4961,7 +4982,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5073,11 +5093,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="2112408376"/>
-        <c:axId val="2112535352"/>
+        <c:axId val="2114462904"/>
+        <c:axId val="2114312904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112408376"/>
+        <c:axId val="2114462904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,7 +5106,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112535352"/>
+        <c:crossAx val="2114312904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5094,7 +5114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112535352"/>
+        <c:axId val="2114312904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5117,14 +5137,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112408376"/>
+        <c:crossAx val="2114462904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5258,11 +5277,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2112089480"/>
-        <c:axId val="2112092456"/>
+        <c:axId val="2130078792"/>
+        <c:axId val="2129911928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112089480"/>
+        <c:axId val="2130078792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,7 +5290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112092456"/>
+        <c:crossAx val="2129911928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5279,7 +5298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112092456"/>
+        <c:axId val="2129911928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,7 +5309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112089480"/>
+        <c:crossAx val="2130078792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5552,11 +5571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123996968"/>
-        <c:axId val="2122207032"/>
+        <c:axId val="2129922376"/>
+        <c:axId val="2130540280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123996968"/>
+        <c:axId val="2129922376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5565,7 +5584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122207032"/>
+        <c:crossAx val="2130540280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5573,7 +5592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122207032"/>
+        <c:axId val="2130540280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5584,7 +5603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123996968"/>
+        <c:crossAx val="2129922376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5837,11 +5856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125063128"/>
-        <c:axId val="2125066104"/>
+        <c:axId val="2114296264"/>
+        <c:axId val="2114161176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125063128"/>
+        <c:axId val="2114296264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +5869,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125066104"/>
+        <c:crossAx val="2114161176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5858,7 +5877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125066104"/>
+        <c:axId val="2114161176"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5896,7 +5915,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2125063128"/>
+        <c:crossAx val="2114296264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6088,11 +6107,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2125108536"/>
-        <c:axId val="2125111512"/>
+        <c:axId val="2130680184"/>
+        <c:axId val="2129996920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125108536"/>
+        <c:axId val="2130680184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6101,7 +6120,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125111512"/>
+        <c:crossAx val="2129996920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6109,7 +6128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125111512"/>
+        <c:axId val="2129996920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6125,14 +6144,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2125108536"/>
+        <c:crossAx val="2130680184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18917,10 +18935,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F25"/>
+  <dimension ref="B4:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18929,7 +18947,7 @@
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:8">
       <c r="C4" t="s">
         <v>145</v>
       </c>
@@ -18937,7 +18955,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>3</v>
       </c>
@@ -18953,8 +18971,11 @@
       <c r="F5">
         <v>8406.4349874019008</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="H5">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>10</v>
       </c>
@@ -18970,8 +18991,11 @@
       <c r="F6">
         <v>138173.902688662</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="H6">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>30</v>
       </c>
@@ -18987,8 +19011,11 @@
       <c r="F7">
         <v>300213.45475878299</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="H7">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>50</v>
       </c>
@@ -19004,8 +19031,11 @@
       <c r="F8">
         <v>1689923.5428102701</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="H8">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>100</v>
       </c>
@@ -19021,8 +19051,11 @@
       <c r="F9">
         <v>4177783.2883821698</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="H9">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="C12" t="s">
         <v>136</v>
       </c>
@@ -19036,7 +19069,7 @@
         <v>33793.213561692399</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:8">
       <c r="C13" t="s">
         <v>137</v>
       </c>
@@ -19050,7 +19083,7 @@
         <v>11371.1776480315</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:8">
       <c r="C14" t="s">
         <v>134</v>
       </c>
@@ -19064,7 +19097,7 @@
         <v>3642.3866714219398</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:8">
       <c r="C15" t="s">
         <v>141</v>
       </c>
@@ -19078,7 +19111,7 @@
         <v>1813.6680457907801</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:8">
       <c r="C16" t="s">
         <v>142</v>
       </c>
